--- a/data/proposals/incorrect2/over_budget.xlsx
+++ b/data/proposals/incorrect2/over_budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucasmeyer\personal\Microsoft-Semantic-Kernel\ch3\proposals\incorrect2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucasmeyer\personal\Microsoft-Semantic-Kernel\data\proposals\incorrect2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7972EBDB-5A03-4099-AFCA-000B18425900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D18CB31-3E92-493E-8BAD-59D1D10FD01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37640" yWindow="850" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{C405C00C-3878-4152-993B-3E5C2131A24C}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>200000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>220000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>240000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>260000</v>
+        <v>360000</v>
       </c>
     </row>
   </sheetData>
